--- a/LearningQuickReference.xlsx
+++ b/LearningQuickReference.xlsx
@@ -8,22 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajneesh.kumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC0D4DE-89B4-4830-923F-59C7E9F046B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254BDB9-F549-4545-9EC4-270276C7BE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" tabRatio="804" activeTab="10" xr2:uid="{D1D12E39-BA00-48F9-AAB0-C2168208272A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" tabRatio="984" activeTab="1" xr2:uid="{D1D12E39-BA00-48F9-AAB0-C2168208272A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Action class" sheetId="1" r:id="rId1"/>
-    <sheet name="Webdriver" sheetId="2" r:id="rId2"/>
-    <sheet name="WebElement" sheetId="3" r:id="rId3"/>
-    <sheet name="Robot class" sheetId="4" r:id="rId4"/>
-    <sheet name="JavaScript Executor" sheetId="5" r:id="rId5"/>
-    <sheet name="dropdown" sheetId="6" r:id="rId6"/>
-    <sheet name="checkbox" sheetId="7" r:id="rId7"/>
-    <sheet name="Java" sheetId="8" r:id="rId8"/>
-    <sheet name="restassured" sheetId="9" r:id="rId9"/>
+    <sheet name="INDEX" sheetId="16" r:id="rId1"/>
+    <sheet name="Action class" sheetId="1" r:id="rId2"/>
+    <sheet name="Popups" sheetId="26" r:id="rId3"/>
+    <sheet name="Webdriver" sheetId="2" r:id="rId4"/>
+    <sheet name="WebElement" sheetId="3" r:id="rId5"/>
+    <sheet name="Robot class" sheetId="4" r:id="rId6"/>
+    <sheet name="JavaScript Executor" sheetId="5" r:id="rId7"/>
+    <sheet name="Elements" sheetId="6" r:id="rId8"/>
+    <sheet name="Xpath and Locator" sheetId="7" r:id="rId9"/>
     <sheet name="PageObjectModel" sheetId="10" r:id="rId10"/>
     <sheet name="BDD" sheetId="11" r:id="rId11"/>
+    <sheet name="SQL" sheetId="12" r:id="rId12"/>
+    <sheet name="TestNG" sheetId="13" r:id="rId13"/>
+    <sheet name="Sikuli" sheetId="14" r:id="rId14"/>
+    <sheet name="JUnit" sheetId="15" r:id="rId15"/>
+    <sheet name="Java OOPS" sheetId="8" r:id="rId16"/>
+    <sheet name="Java strings" sheetId="17" r:id="rId17"/>
+    <sheet name="Java Array" sheetId="19" r:id="rId18"/>
+    <sheet name="Java Collections" sheetId="20" r:id="rId19"/>
+    <sheet name="Java Best Practices" sheetId="21" r:id="rId20"/>
+    <sheet name="Java design patterns" sheetId="22" r:id="rId21"/>
+    <sheet name="Restassured" sheetId="9" r:id="rId22"/>
+    <sheet name="Groovy" sheetId="24" r:id="rId23"/>
+    <sheet name="Performance and Jmeter" sheetId="23" r:id="rId24"/>
+    <sheet name="Security" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet7" sheetId="18" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,16 +59,344 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>checkbox</t>
+  </si>
+  <si>
+    <t>dragAndDrop(WebElement source, WebElement target): This method performs left click, hold the click to hold the source element, moves to the location of the target element and then releases the mouse click.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actions builder = new Actions(driver);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WebElement from = driver.findElement(By.id("draggable"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WebElement to = driver.findElement(By.id("droppable")); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //Perform drag and drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> builder.dragAndDrop(from, to).perform();</t>
+  </si>
+  <si>
+    <t>dragAndDropBy(WebElement source, int xOffset, int yOffset): This method clicks &amp; holds the source element and moves by a given offset, then releases the mouse. Offsets are defined by x &amp; y.</t>
+  </si>
+  <si>
+    <t>WebElement from = driver.findElement(By.id("draggable"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WebElement to = driver.findElement(By.id("droppable"));</t>
+  </si>
+  <si>
+    <t>//Here, getting x and y offset to drop source object on target object location</t>
+  </si>
+  <si>
+    <t>//First, get x and y offset for from object</t>
+  </si>
+  <si>
+    <t>int xOffset1 = from.getLocation().getX();</t>
+  </si>
+  <si>
+    <t>int yOffset1 =  from.getLocation().getY();</t>
+  </si>
+  <si>
+    <t>System.out.println("xOffset1---&gt;"+xOffset1+" yOffset1---&gt;"+yOffset1);</t>
+  </si>
+  <si>
+    <t>//Secondly, get x and y offset for to object</t>
+  </si>
+  <si>
+    <t>int xOffset = to.getLocation().getX();</t>
+  </si>
+  <si>
+    <t>int yOffset =  to.getLocation().getY();</t>
+  </si>
+  <si>
+    <t>System.out.println("xOffset---&gt;"+xOffset+" yOffset---&gt;"+yOffset);</t>
+  </si>
+  <si>
+    <t>//Find the xOffset and yOffset difference to find x and y offset needed in which from object required to dragged and dropped</t>
+  </si>
+  <si>
+    <t>xOffset =(xOffset-xOffset1)+10;</t>
+  </si>
+  <si>
+    <t>yOffset=(yOffset-yOffset1)+20;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Perform dragAndDropBy </t>
+  </si>
+  <si>
+    <t>builder.dragAndDropBy(from, xOffset,yOffset).perform();</t>
+  </si>
+  <si>
+    <t>MOuse hover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Action mouseOverHome = builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .moveToElement(link_Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .build();</t>
+  </si>
+  <si>
+    <r>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sendKeys(element, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"iphone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>build()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>perform();</t>
+    </r>
+  </si>
+  <si>
+    <t>The build() method generates a composite action containing all actions which are ready to be performed. The perform() method is used to perform the series of actions that are defined.</t>
+  </si>
+  <si>
+    <r>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>clickAndHold(source)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>moveToElement(destination)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>release()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>build()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>perform();</t>
+    </r>
+  </si>
+  <si>
+    <t>Drag and Drop</t>
+  </si>
+  <si>
+    <t>sendKeys</t>
+  </si>
+  <si>
+    <t>//specify the locator of the search box</t>
+  </si>
+  <si>
+    <t>//pass the name of the product</t>
+  </si>
+  <si>
+    <t>//pass the Enter value through sendKeys</t>
+  </si>
+  <si>
+    <t>Actions action = new Actions(driver);</t>
+  </si>
+  <si>
+    <t>WebElement elementToType = driver.findElement(By.id("twotabsearchtextbox"));</t>
+  </si>
+  <si>
+    <t>action.sendKeys(elementToType, "iphone").build().perform();</t>
+  </si>
+  <si>
+    <t>action.sendKeys(Keys.ENTER).build().perform();</t>
+  </si>
+  <si>
+    <t>//holds the SHIFT key and converts the text to uppercase</t>
+  </si>
+  <si>
+    <t>action.keyDown(element,Keys.SHIFT).sendKeys("lambdatest").build().perform();</t>
+  </si>
+  <si>
+    <t>// Scroll Down using Actions class</t>
+  </si>
+  <si>
+    <t>Actions act = new Actions(driver);</t>
+  </si>
+  <si>
+    <t>act.keyDown(Keys.CONTROL).sendKeys(Keys.END).perform();</t>
+  </si>
+  <si>
+    <t>// Scroll Up using Actions class</t>
+  </si>
+  <si>
+    <t>act.keyDown(Keys.CONTROL).sendKeys(Keys.HOME).perform();</t>
+  </si>
+  <si>
+    <t>Copy and paste</t>
+  </si>
+  <si>
+    <t>action.keyDown( Keys.CONTROL ).sendKeys( "a" ).keyUp( Keys.CONTROL ).build().perform();</t>
+  </si>
+  <si>
+    <t>action.keyDown( Keys.CONTROL ).sendKeys( "c" ).keyUp( Keys.CONTROL ).build().perform();</t>
+  </si>
+  <si>
+    <t>userName.click();</t>
+  </si>
+  <si>
+    <t>action.keyDown( Keys.CONTROL ).sendKeys( "v" ).keyUp( Keys.CONTROL ).build().perform();</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>&gt;&gt; sendKeys(Keys.F5).build().perform();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +404,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +449,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +468,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94007</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>55978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F2238D-44CF-4565-AFEC-FDCA9FDBA015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="13735050"/>
+          <a:ext cx="9942857" cy="9371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>294019</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D088E0C4-E802-4FDE-9453-305171A53C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23736300"/>
+          <a:ext cx="10047619" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>294642</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5420-1AC4-4E27-BBAE-E8A0B8E182A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12296775" y="561975"/>
+          <a:ext cx="5066667" cy="6619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,12 +903,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B90096-AD17-4AFF-8963-71B878AB3EA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B664217-CAA8-4996-949C-34DFBB941B05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -426,8 +930,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07B562-0EB5-4108-82B4-D432B38F6BFB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D252265F-C3B6-4EE6-9BEB-305E9DB69EC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +952,509 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE823D-7150-4EA7-B024-CB34D591A293}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790CB24F-91AA-49F8-A872-814E20F39CB9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C4A0F-2B2E-4603-89F1-E9AC728B903A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB3AE5B-4098-4171-8D79-D7E653174CA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04CE930-66E8-41D2-8D2A-2ED5A79672C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2437BF-10E9-4BAA-A6AF-3F88AF9193CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F863CB50-C98C-4254-8ED8-4F50CBF9371B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B90096-AD17-4AFF-8963-71B878AB3EA7}">
+  <dimension ref="A2:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74211B10-243F-4947-B085-E02050706EEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F04386-0776-40CA-B5AB-507FB1A22370}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED9D6A2-4433-44C3-8B11-2645886F6101}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1852D52A-5361-41FE-9929-0889F7F3678C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF67198-9C6A-451F-BF26-A20D21358B3C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF19585-64B9-4FFE-AACF-402CE4DF664E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085D97C-A90E-4AE3-8D3A-D998A8049CE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34B3B0C-5E94-49C5-BE34-5044BB36FF8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D799E9-3ECE-4E29-8A7D-C67F6572872F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -448,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB74490-257D-4D7C-9CA0-C1BA300C015B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -460,7 +1478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDFD141-627D-49FE-81BB-8ABEA5986807}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -472,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D82364E-D958-4054-AFF4-DC5EC29CBFED}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -486,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C08B1DC-A334-4540-ACF6-045EED74A8A5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -500,7 +1518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B0D7F-641A-427C-A1D0-3BC2550FFC4C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -516,32 +1534,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB3AE5B-4098-4171-8D79-D7E653174CA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED9D6A2-4433-44C3-8B11-2645886F6101}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>